--- a/Result_5050.xlsx
+++ b/Result_5050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Videos\binary-Gray-Wolf-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA617-C9F6-4F77-B13E-9CA4C3FFC5A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C073B6B-EFF6-4B77-968F-FC2601253BBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -498,55 +498,55 @@
         <v>0.97214285714285698</v>
       </c>
       <c r="C2">
-        <v>0.94438596491228</v>
+        <v>0.94526315789473603</v>
       </c>
       <c r="D2">
-        <v>0.95504587155963205</v>
+        <v>0.95389908256880696</v>
       </c>
       <c r="E2">
-        <v>0.79959999999999998</v>
+        <v>0.75290000000000001</v>
       </c>
       <c r="F2">
-        <v>0.752</v>
+        <v>0.751999999999999</v>
       </c>
       <c r="G2">
-        <v>0.77962962962962901</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="H2">
-        <v>0.87244318181818103</v>
+        <v>0.86960227272727197</v>
       </c>
       <c r="I2">
-        <v>0.96154568210262803</v>
+        <v>0.95960575719649499</v>
       </c>
       <c r="J2">
-        <v>0.84121621621621601</v>
+        <v>0.82972972972972903</v>
       </c>
       <c r="K2">
-        <v>0.92089999999999905</v>
+        <v>0.91699999999999904</v>
       </c>
       <c r="L2">
-        <v>0.87297297297297205</v>
+        <v>0.87027027027027004</v>
       </c>
       <c r="M2">
-        <v>0.828365384615384</v>
+        <v>0.82884615384615301</v>
       </c>
       <c r="N2">
-        <v>0.85895522388059697</v>
+        <v>0.85671641791044695</v>
       </c>
       <c r="O2">
-        <v>0.78559498956158602</v>
+        <v>0.78434237995824596</v>
       </c>
       <c r="P2">
-        <v>0.95333333333333303</v>
+        <v>0.94766666666666599</v>
       </c>
       <c r="Q2">
-        <v>0.83048</v>
+        <v>0.82765999999999995</v>
       </c>
       <c r="R2">
-        <v>0.911797752808988</v>
+        <v>0.90617977528089799</v>
       </c>
       <c r="S2">
-        <v>0.95196078431372499</v>
+        <v>0.94411764705882295</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -554,58 +554,58 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.67777777777777704</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="C3">
-        <v>0.42666666666666597</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="D3">
-        <v>0.52812499999999996</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="E3">
-        <v>0.66538461538461502</v>
+        <v>0.68076923076923002</v>
       </c>
       <c r="F3">
-        <v>0.484615384615384</v>
+        <v>0.51153846153846105</v>
       </c>
       <c r="G3">
-        <v>0.55769230769230704</v>
+        <v>0.59230769230769198</v>
       </c>
       <c r="H3">
-        <v>0.57058823529411695</v>
+        <v>0.58529411764705797</v>
       </c>
       <c r="I3">
-        <v>0.77083333333333304</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="J3">
-        <v>0.61944444444444402</v>
+        <v>0.57222222222222197</v>
       </c>
       <c r="K3">
-        <v>0.70384615384615301</v>
+        <v>0.71153846153846101</v>
       </c>
       <c r="L3">
-        <v>0.57399999999999995</v>
+        <v>0.589230769230769</v>
       </c>
       <c r="M3">
-        <v>0.56916666666666604</v>
+        <v>0.63416666666666599</v>
       </c>
       <c r="N3">
-        <v>0.62954545454545396</v>
+        <v>0.64545454545454495</v>
       </c>
       <c r="O3">
-        <v>0.83888888888888802</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="P3">
-        <v>0.55937499999999996</v>
+        <v>0.56562500000000004</v>
       </c>
       <c r="Q3">
-        <v>0.79499999999999904</v>
+        <v>0.807499999999999</v>
       </c>
       <c r="R3">
-        <v>0.507692307692307</v>
+        <v>0.56538461538461504</v>
       </c>
       <c r="S3">
-        <v>0.59687500000000004</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -613,58 +613,58 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>6.9830242633819504</v>
+        <v>7.3442192077636701</v>
       </c>
       <c r="C4">
-        <v>6.0244443178176796</v>
+        <v>6.3258038401603702</v>
       </c>
       <c r="D4">
-        <v>4.6139435887336697</v>
+        <v>4.8024750828742899</v>
       </c>
       <c r="E4">
-        <v>11.3968663573265</v>
+        <v>12.1428676486015</v>
       </c>
       <c r="F4">
-        <v>10.9387349247932</v>
+        <v>11.250439107418</v>
       </c>
       <c r="G4">
-        <v>3.1186631441116299</v>
+        <v>3.2411979913711502</v>
       </c>
       <c r="H4">
-        <v>4.2438764929771402</v>
+        <v>4.3437032938003499</v>
       </c>
       <c r="I4">
-        <v>75.912749457359297</v>
+        <v>81.573351812362603</v>
       </c>
       <c r="J4">
-        <v>2.0128869771957398</v>
+        <v>2.0905593037605201</v>
       </c>
       <c r="K4">
-        <v>11.463870954513499</v>
+        <v>11.983268749713799</v>
       </c>
       <c r="L4">
-        <v>1.62960357666015</v>
+        <v>1.73398493528366</v>
       </c>
       <c r="M4">
-        <v>2.8472027182579001</v>
+        <v>3.0532812118530201</v>
       </c>
       <c r="N4">
-        <v>3.29522289037704</v>
+        <v>3.3845758795738199</v>
       </c>
       <c r="O4">
-        <v>10.404755115508999</v>
+        <v>10.697135090827899</v>
       </c>
       <c r="P4">
-        <v>3.3821671962737998</v>
+        <v>3.4729179620742698</v>
       </c>
       <c r="Q4">
-        <v>231.812761878967</v>
+        <v>243.13734478950499</v>
       </c>
       <c r="R4">
-        <v>2.2621372699737501</v>
+        <v>2.4311899065971301</v>
       </c>
       <c r="S4">
-        <v>1.5354728341102599</v>
+        <v>1.64257678985595</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -672,58 +672,58 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>3.4356349206349203E-2</v>
+        <v>3.4523015873015803E-2</v>
       </c>
       <c r="C5">
-        <v>5.9324561403508697E-2</v>
+        <v>5.8772807017543803E-2</v>
       </c>
       <c r="D5">
-        <v>4.97858371559632E-2</v>
+        <v>5.0702408256880702E-2</v>
       </c>
       <c r="E5">
-        <v>0.205049846153846</v>
+        <v>0.251436692307692</v>
       </c>
       <c r="F5">
-        <v>0.25036615384615302</v>
+        <v>0.25063538461538398</v>
       </c>
       <c r="G5">
-        <v>0.22374358974358899</v>
+        <v>0.225923076923076</v>
       </c>
       <c r="H5">
-        <v>0.13198713235294099</v>
+        <v>0.13494669117647001</v>
       </c>
       <c r="I5">
-        <v>4.5778108051731298E-2</v>
+        <v>4.7768078153247101E-2</v>
       </c>
       <c r="J5">
-        <v>0.16339039039038999</v>
+        <v>0.17428978978978901</v>
       </c>
       <c r="K5">
-        <v>8.5347461538461497E-2</v>
+        <v>8.92853846153846E-2</v>
       </c>
       <c r="L5">
-        <v>0.13149675675675601</v>
+        <v>0.13432474012473999</v>
       </c>
       <c r="M5">
-        <v>0.17560993589743501</v>
+        <v>0.175783974358974</v>
       </c>
       <c r="N5">
-        <v>0.14592978290366301</v>
+        <v>0.148305291723202</v>
       </c>
       <c r="O5">
-        <v>0.220649849222918</v>
+        <v>0.221834377174669</v>
       </c>
       <c r="P5">
-        <v>5.179375E-2</v>
+        <v>5.7466249999999899E-2</v>
       </c>
       <c r="Q5">
-        <v>0.17577480000000001</v>
+        <v>0.17869159999999901</v>
       </c>
       <c r="R5">
-        <v>9.2397147796024204E-2</v>
+        <v>9.8535868625756196E-2</v>
       </c>
       <c r="S5">
-        <v>5.3527573529411697E-2</v>
+        <v>6.1417279411764697E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -734,55 +734,55 @@
         <v>4.4549206349206297E-2</v>
       </c>
       <c r="C6">
-        <v>8.3228070175438595E-2</v>
+        <v>8.0754385964912204E-2</v>
       </c>
       <c r="D6">
-        <v>7.1077981651376104E-2</v>
+        <v>7.4994266055045902E-2</v>
       </c>
       <c r="E6">
-        <v>0.30832461538461498</v>
+        <v>0.31041846153846098</v>
       </c>
       <c r="F6">
-        <v>0.26828307692307601</v>
+        <v>0.27268461538461503</v>
       </c>
       <c r="G6">
         <v>0.31415384615384601</v>
       </c>
       <c r="H6">
-        <v>0.153014705882352</v>
+        <v>0.15716911764705799</v>
       </c>
       <c r="I6">
-        <v>6.1334654429147498E-2</v>
+        <v>5.6506396884995098E-2</v>
       </c>
       <c r="J6">
-        <v>0.221831831831831</v>
+        <v>0.24581081081080999</v>
       </c>
       <c r="K6">
         <v>0.133970769230769</v>
       </c>
       <c r="L6">
-        <v>0.19305114345114299</v>
+        <v>0.19308191268191199</v>
       </c>
       <c r="M6">
-        <v>0.25333333333333302</v>
+        <v>0.25266666666666598</v>
       </c>
       <c r="N6">
-        <v>0.18322252374491099</v>
+        <v>0.18231343283581999</v>
       </c>
       <c r="O6">
         <v>0.24943864532591001</v>
       </c>
       <c r="P6">
-        <v>8.6074999999999902E-2</v>
+        <v>9.2050000000000007E-2</v>
       </c>
       <c r="Q6">
-        <v>0.190994</v>
+        <v>0.18878399999999901</v>
       </c>
       <c r="R6">
-        <v>0.291521175453759</v>
+        <v>0.238980121002592</v>
       </c>
       <c r="S6">
-        <v>8.5147058823529395E-2</v>
+        <v>0.120220588235294</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -793,55 +793,55 @@
         <v>2.64666666666666E-2</v>
       </c>
       <c r="C7">
-        <v>3.9403508771929802E-2</v>
+        <v>3.9070175438596401E-2</v>
       </c>
       <c r="D7">
-        <v>2.8331422018348498E-2</v>
+        <v>2.31651376146789E-2</v>
       </c>
       <c r="E7">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="F7">
-        <v>0.24034923076923001</v>
+        <v>0.241118461538461</v>
       </c>
       <c r="G7">
-        <v>0.15282051282051201</v>
+        <v>0.130051282051282</v>
       </c>
       <c r="H7">
-        <v>0.106544117647058</v>
+        <v>0.10150735294117599</v>
       </c>
       <c r="I7">
-        <v>3.15755805868446E-2</v>
+        <v>3.5314629397858399E-2</v>
       </c>
       <c r="J7">
-        <v>0.111471471471471</v>
+        <v>0.12540540540540501</v>
       </c>
       <c r="K7">
-        <v>1.9244615384615301E-2</v>
+        <v>2.8375384615384601E-2</v>
       </c>
       <c r="L7">
-        <v>8.5593347193347102E-2</v>
+        <v>8.5839501039500901E-2</v>
       </c>
       <c r="M7">
-        <v>0.120397435897435</v>
+        <v>0.130083333333333</v>
       </c>
       <c r="N7">
-        <v>0.11070556309362201</v>
+        <v>0.117184531886024</v>
       </c>
       <c r="O7">
         <v>0.19601252609603301</v>
       </c>
       <c r="P7">
-        <v>2.2925000000000001E-2</v>
+        <v>2.8899999999999901E-2</v>
       </c>
       <c r="Q7">
-        <v>0.16129399999999899</v>
+        <v>0.16942199999999899</v>
       </c>
       <c r="R7">
-        <v>3.7986171132238497E-2</v>
+        <v>3.95246326707E-2</v>
       </c>
       <c r="S7">
-        <v>4.3750000000000004E-3</v>
+        <v>2.50367647058823E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -849,58 +849,58 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>5.3431734502565201E-3</v>
+        <v>5.4832596539239904E-3</v>
       </c>
       <c r="C8">
-        <v>1.31504768564203E-2</v>
+        <v>1.23046764413725E-2</v>
       </c>
       <c r="D8">
-        <v>1.32411448695661E-2</v>
+        <v>1.3504625147677401E-2</v>
       </c>
       <c r="E8">
-        <v>9.6322315009825493E-2</v>
+        <v>7.5888368360195899E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>8.6495293164685991E-3</v>
+        <v>8.3527983618289798E-3</v>
       </c>
       <c r="G8">
-        <v>5.5619010178428498E-2</v>
+        <v>5.6147056140237503E-2</v>
       </c>
       <c r="H8">
-        <v>1.40900440312802E-2</v>
+        <v>1.29661902880975E-2</v>
       </c>
       <c r="I8">
-        <v>8.3062178781789595E-3</v>
+        <v>5.9093575853575199E-3</v>
       </c>
       <c r="J8">
-        <v>2.86961016522073E-2</v>
+        <v>3.5719706798349599E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>2.9361224255286499E-2</v>
+        <v>3.4854096603687303E-2</v>
       </c>
       <c r="L8">
-        <v>2.5438436104481099E-2</v>
+        <v>2.4879456645731698E-2</v>
       </c>
       <c r="M8">
-        <v>3.10189164329191E-2</v>
+        <v>3.3334902274466803E-2</v>
       </c>
       <c r="N8">
-        <v>1.9109723668535201E-2</v>
+        <v>1.5859027703633701E-2</v>
       </c>
       <c r="O8">
-        <v>1.48404817041698E-2</v>
+        <v>1.5059251369551E-2</v>
       </c>
       <c r="P8">
-        <v>1.6545176553530602E-2</v>
+        <v>1.73811990290514E-2</v>
       </c>
       <c r="Q8">
-        <v>6.2490782168252599E-3</v>
+        <v>5.9366636623611998E-3</v>
       </c>
       <c r="R8">
-        <v>7.1108736789274804E-2</v>
+        <v>6.9041423268985005E-2</v>
       </c>
       <c r="S8">
-        <v>1.8735138555978699E-2</v>
+        <v>2.1804422956899099E-2</v>
       </c>
     </row>
   </sheetData>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE2AEC-273A-44E9-8AA1-D25215D63B1D}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -986,46 +986,46 @@
         <v>5.3631578947368398E-2</v>
       </c>
       <c r="D2">
-        <v>3.5538990825688101E-2</v>
+        <v>4.7121559633027499E-2</v>
       </c>
       <c r="E2">
-        <v>7.8644615384615299E-2</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F2">
-        <v>0.25838307692307599</v>
+        <v>0.25442307692307597</v>
       </c>
       <c r="G2">
-        <v>0.20415384615384599</v>
+        <v>0.18292307692307599</v>
       </c>
       <c r="H2">
-        <v>0.14738970588235201</v>
+        <v>0.136433823529411</v>
       </c>
       <c r="I2">
-        <v>3.2964469475733497E-2</v>
+        <v>4.22573355583368E-2</v>
       </c>
       <c r="J2">
-        <v>0.18003003003003001</v>
+        <v>0.22072072072071999</v>
       </c>
       <c r="K2">
         <v>9.0083076923076794E-2</v>
       </c>
       <c r="L2">
-        <v>0.11287318087318</v>
+        <v>8.6177962577962494E-2</v>
       </c>
       <c r="M2">
-        <v>0.15880769230769201</v>
+        <v>0.130083333333333</v>
       </c>
       <c r="N2">
-        <v>0.17674355495251001</v>
+        <v>0.14582767978290301</v>
       </c>
       <c r="O2">
         <v>0.208413361169102</v>
       </c>
       <c r="P2">
-        <v>6.3774999999999998E-2</v>
+        <v>5.5925000000000002E-2</v>
       </c>
       <c r="Q2">
-        <v>0.177591999999999</v>
+        <v>0.17377799999999999</v>
       </c>
       <c r="R2">
         <v>7.1356957649092501E-2</v>
@@ -1042,55 +1042,55 @@
         <v>3.7780952380952401E-2</v>
       </c>
       <c r="C3">
-        <v>6.23859649122806E-2</v>
+        <v>6.3385964912280601E-2</v>
       </c>
       <c r="D3">
         <v>5.8870412844036699E-2</v>
       </c>
       <c r="E3">
-        <v>0.27972153846153802</v>
+        <v>0.27224307692307598</v>
       </c>
       <c r="F3">
-        <v>0.250904615384615</v>
+        <v>0.25486461538461502</v>
       </c>
       <c r="G3">
-        <v>0.17251282051281999</v>
+        <v>0.24082051282051201</v>
       </c>
       <c r="H3">
-        <v>0.107720588235294</v>
+        <v>0.10625</v>
       </c>
       <c r="I3">
-        <v>5.5139410374078698E-2</v>
+        <v>4.7427339730218197E-2</v>
       </c>
       <c r="J3">
-        <v>0.152162162162162</v>
+        <v>0.15160660660660599</v>
       </c>
       <c r="K3">
-        <v>1.9244615384615301E-2</v>
+        <v>4.1793846153846098E-2</v>
       </c>
       <c r="L3">
-        <v>0.13935301455301399</v>
+        <v>0.138614553014552</v>
       </c>
       <c r="M3">
-        <v>0.157141025641025</v>
+        <v>0.14795512820512799</v>
       </c>
       <c r="N3">
-        <v>0.14071234735413801</v>
+        <v>0.14673677069199401</v>
       </c>
       <c r="O3">
         <v>0.204279749478079</v>
       </c>
       <c r="P3">
-        <v>8.0100000000000005E-2</v>
+        <v>8.0725000000000005E-2</v>
       </c>
       <c r="Q3">
-        <v>0.17536199999999899</v>
+        <v>0.18803399999999901</v>
       </c>
       <c r="R3">
-        <v>0.22862575626620499</v>
+        <v>0.230164217804667</v>
       </c>
       <c r="S3">
-        <v>4.5698529411764603E-2</v>
+        <v>6.3860294117647001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1098,58 +1098,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.4952380952380901E-2</v>
+        <v>4.0003174603174603E-2</v>
       </c>
       <c r="C4">
-        <v>5.7105263157894701E-2</v>
+        <v>4.63508771929824E-2</v>
       </c>
       <c r="D4">
-        <v>5.0412844036697102E-2</v>
+        <v>5.1037844036697103E-2</v>
       </c>
       <c r="E4">
-        <v>0.26586153846153798</v>
+        <v>0.29314000000000001</v>
       </c>
       <c r="F4">
-        <v>0.24034923076923001</v>
+        <v>0.241118461538461</v>
       </c>
       <c r="G4">
-        <v>0.26205128205128198</v>
+        <v>0.262820512820512</v>
       </c>
       <c r="H4">
-        <v>0.124889705882352</v>
+        <v>0.136433823529411</v>
       </c>
       <c r="I4">
-        <v>4.6743846474760098E-2</v>
+        <v>5.50754415241273E-2</v>
       </c>
       <c r="J4">
-        <v>0.153273273273273</v>
+        <v>0.12540540540540501</v>
       </c>
       <c r="K4">
         <v>0.133970769230769</v>
       </c>
       <c r="L4">
-        <v>0.13981455301455201</v>
+        <v>0.13984532224532201</v>
       </c>
       <c r="M4">
-        <v>0.25333333333333302</v>
+        <v>0.25266666666666598</v>
       </c>
       <c r="N4">
-        <v>0.131960651289009</v>
+        <v>0.15412483039348701</v>
       </c>
       <c r="O4">
         <v>0.214613778705636</v>
       </c>
       <c r="P4">
-        <v>5.30749999999999E-2</v>
+        <v>5.2449999999999899E-2</v>
       </c>
       <c r="Q4">
-        <v>0.17590399999999901</v>
+        <v>0.17511199999999899</v>
       </c>
       <c r="R4">
-        <v>0.291521175453759</v>
+        <v>0.18566983578219501</v>
       </c>
       <c r="S4">
-        <v>8.1397058823529406E-2</v>
+        <v>8.0772058823529405E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1160,52 +1160,52 @@
         <v>4.06095238095237E-2</v>
       </c>
       <c r="C5">
-        <v>3.9403508771929802E-2</v>
+        <v>3.9070175438596401E-2</v>
       </c>
       <c r="D5">
-        <v>5.4954128440366998E-2</v>
+        <v>6.2786697247706399E-2</v>
       </c>
       <c r="E5">
         <v>9.0524615384615301E-2</v>
       </c>
       <c r="F5">
-        <v>0.24892461538461499</v>
+        <v>0.246061538461538</v>
       </c>
       <c r="G5">
         <v>0.164410256410256</v>
       </c>
       <c r="H5">
-        <v>0.14088235294117599</v>
+        <v>0.14650735294117601</v>
       </c>
       <c r="I5">
-        <v>3.2003198442497501E-2</v>
+        <v>4.0462731191767402E-2</v>
       </c>
       <c r="J5">
-        <v>0.15438438438438401</v>
+        <v>0.167207207207207</v>
       </c>
       <c r="K5">
-        <v>0.106692307692307</v>
+        <v>2.8375384615384601E-2</v>
       </c>
       <c r="L5">
-        <v>0.192466528066528</v>
+        <v>0.19308191268191199</v>
       </c>
       <c r="M5">
-        <v>0.17701282051282</v>
+        <v>0.197051282051282</v>
       </c>
       <c r="N5">
-        <v>0.16151289009497899</v>
+        <v>0.161967435549525</v>
       </c>
       <c r="O5">
-        <v>0.22257016933426099</v>
+        <v>0.24228253305497499</v>
       </c>
       <c r="P5">
-        <v>6.9749999999999895E-2</v>
+        <v>9.2050000000000007E-2</v>
       </c>
       <c r="Q5">
-        <v>0.169713999999999</v>
+        <v>0.17619599999999999</v>
       </c>
       <c r="R5">
-        <v>8.3249783923941195E-2</v>
+        <v>0.2071477960242</v>
       </c>
       <c r="S5">
         <v>8.5147058823529395E-2</v>
@@ -1216,16 +1216,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.4952380952380901E-2</v>
+        <v>3.6669841269841297E-2</v>
       </c>
       <c r="C6">
-        <v>6.0578947368421003E-2</v>
+        <v>6.3719298245613995E-2</v>
       </c>
       <c r="D6">
-        <v>3.2872706422018297E-2</v>
+        <v>3.6788990825688102E-2</v>
       </c>
       <c r="E6">
-        <v>0.10438461538461501</v>
+        <v>0.30964923076923001</v>
       </c>
       <c r="F6">
         <v>0.25882461538461499</v>
@@ -1234,40 +1234,40 @@
         <v>0.290615384615384</v>
       </c>
       <c r="H6">
-        <v>0.128161764705882</v>
+        <v>0.14029411764705799</v>
       </c>
       <c r="I6">
-        <v>6.1334654429147498E-2</v>
+        <v>5.6100681407314598E-2</v>
       </c>
       <c r="J6">
-        <v>0.127627627627627</v>
+        <v>0.15382882882882801</v>
       </c>
       <c r="K6">
         <v>0.10471230769230699</v>
       </c>
       <c r="L6">
-        <v>0.13901455301455201</v>
+        <v>0.13932224532224499</v>
       </c>
       <c r="M6">
-        <v>0.187032051282051</v>
+        <v>0.196051282051282</v>
       </c>
       <c r="N6">
-        <v>0.138439620081411</v>
+        <v>0.13241519674355401</v>
       </c>
       <c r="O6">
         <v>0.201902110879146</v>
       </c>
       <c r="P6">
-        <v>3.4524999999999903E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="Q6">
-        <v>0.17744599999999999</v>
+        <v>0.17630000000000001</v>
       </c>
       <c r="R6">
-        <v>6.2541054451166797E-2</v>
+        <v>6.1771823681935997E-2</v>
       </c>
       <c r="S6">
-        <v>4.4448529411764602E-2</v>
+        <v>6.5110294117647002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1281,52 +1281,52 @@
         <v>3.9736842105263098E-2</v>
       </c>
       <c r="D7">
-        <v>4.0705275229357699E-2</v>
+        <v>4.4621559633027497E-2</v>
       </c>
       <c r="E7">
-        <v>0.15586461538461499</v>
+        <v>0.28687230769230698</v>
       </c>
       <c r="F7">
         <v>0.24265692307692299</v>
       </c>
       <c r="G7">
-        <v>0.16825641025641</v>
+        <v>0.21225641025641001</v>
       </c>
       <c r="H7">
-        <v>0.150661764705882</v>
+        <v>0.15716911764705799</v>
       </c>
       <c r="I7">
-        <v>3.98432067862605E-2</v>
+        <v>3.7920664719788499E-2</v>
       </c>
       <c r="J7">
-        <v>0.153273273273273</v>
+        <v>0.20567567567567499</v>
       </c>
       <c r="K7">
-        <v>9.2063076923076803E-2</v>
+        <v>0.117803076923076</v>
       </c>
       <c r="L7">
-        <v>0.113550103950103</v>
+        <v>0.11330395010395</v>
       </c>
       <c r="M7">
-        <v>0.148121794871794</v>
+        <v>0.159141025641025</v>
       </c>
       <c r="N7">
-        <v>0.117184531886024</v>
+        <v>0.125936227951153</v>
       </c>
       <c r="O7">
         <v>0.202212943632567</v>
       </c>
       <c r="P7">
-        <v>4.335E-2</v>
+        <v>4.5850000000000002E-2</v>
       </c>
       <c r="Q7">
-        <v>0.17788399999999999</v>
+        <v>0.18601199999999901</v>
       </c>
       <c r="R7">
-        <v>4.7571305099394903E-2</v>
+        <v>4.8340535868625703E-2</v>
       </c>
       <c r="S7">
-        <v>2.6286764705882301E-2</v>
+        <v>6.3860294117647001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1337,55 +1337,55 @@
         <v>2.64666666666666E-2</v>
       </c>
       <c r="C8">
-        <v>7.9087719298245596E-2</v>
+        <v>8.0754385964912204E-2</v>
       </c>
       <c r="D8">
-        <v>3.9288990825688097E-2</v>
+        <v>5.1662844036697103E-2</v>
       </c>
       <c r="E8">
-        <v>0.27103230769230702</v>
+        <v>0.29479230769230702</v>
       </c>
       <c r="F8">
-        <v>0.26278461538461501</v>
+        <v>0.27268461538461503</v>
       </c>
       <c r="G8">
-        <v>0.241589743589743</v>
+        <v>0.30835897435897403</v>
       </c>
       <c r="H8">
-        <v>0.135845588235294</v>
+        <v>0.129338235294117</v>
       </c>
       <c r="I8">
-        <v>4.9499721874565403E-2</v>
+        <v>5.4519885968571803E-2</v>
       </c>
       <c r="J8">
-        <v>0.15438438438438401</v>
+        <v>0.15160660660660599</v>
       </c>
       <c r="K8">
-        <v>9.4812307692307599E-2</v>
+        <v>0.122090769230769</v>
       </c>
       <c r="L8">
-        <v>0.139568399168399</v>
+        <v>0.16644823284823199</v>
       </c>
       <c r="M8">
-        <v>0.167660256410256</v>
+        <v>0.168160256410256</v>
       </c>
       <c r="N8">
-        <v>0.16753731343283501</v>
+        <v>0.167991858887381</v>
       </c>
       <c r="O8">
         <v>0.24943864532591001</v>
       </c>
       <c r="P8">
-        <v>4.5850000000000002E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="Q8">
-        <v>0.179426</v>
+        <v>0.17773800000000001</v>
       </c>
       <c r="R8">
         <v>7.2895419187554003E-2</v>
       </c>
       <c r="S8">
-        <v>6.4485294117647002E-2</v>
+        <v>0.120220588235294</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1393,58 +1393,58 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.99015873015872E-2</v>
+        <v>3.2123809523809499E-2</v>
       </c>
       <c r="C9">
-        <v>7.0999999999999994E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D9">
-        <v>6.34116972477064E-2</v>
+        <v>5.3704128440366997E-2</v>
       </c>
       <c r="E9">
-        <v>0.30073230769230702</v>
+        <v>0.29556153846153799</v>
       </c>
       <c r="F9">
-        <v>0.26278461538461501</v>
+        <v>0.25365384615384601</v>
       </c>
       <c r="G9">
-        <v>0.17405128205128201</v>
+        <v>0.18794871794871701</v>
       </c>
       <c r="H9">
-        <v>0.129044117647058</v>
+        <v>0.14621323529411701</v>
       </c>
       <c r="I9">
-        <v>5.6656236962870199E-2</v>
+        <v>5.5417188151856499E-2</v>
       </c>
       <c r="J9">
-        <v>0.15105105105105099</v>
+        <v>0.16498498498498401</v>
       </c>
       <c r="K9">
-        <v>8.2932307692307597E-2</v>
+        <v>4.6964615384615403E-2</v>
       </c>
       <c r="L9">
-        <v>0.139445322245322</v>
+        <v>0.14018378378378299</v>
       </c>
       <c r="M9">
-        <v>0.14026923076923001</v>
+        <v>0.13025</v>
       </c>
       <c r="N9">
-        <v>0.11070556309362201</v>
+        <v>0.153670284938941</v>
       </c>
       <c r="O9">
-        <v>0.21350266759452499</v>
+        <v>0.22479239155648301</v>
       </c>
       <c r="P9">
-        <v>4.5850000000000002E-2</v>
+        <v>5.9049999999999998E-2</v>
       </c>
       <c r="Q9">
-        <v>0.16129399999999899</v>
+        <v>0.17183999999999999</v>
       </c>
       <c r="R9">
-        <v>3.7986171132238497E-2</v>
+        <v>4.9878997407087199E-2</v>
       </c>
       <c r="S9">
-        <v>6.3860294117647001E-2</v>
+        <v>6.5110294117647002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1458,52 +1458,52 @@
         <v>7.4140350877192895E-2</v>
       </c>
       <c r="D10">
-        <v>6.7161697247706403E-2</v>
+        <v>7.0452981651376104E-2</v>
       </c>
       <c r="E10">
-        <v>4.6153846153846097E-3</v>
+        <v>0.25838307692307599</v>
       </c>
       <c r="F10">
-        <v>0.241887692307692</v>
+        <v>0.25046307692307601</v>
       </c>
       <c r="G10">
         <v>0.31415384615384601</v>
       </c>
       <c r="H10">
-        <v>0.14650735294117601</v>
+        <v>0.135257352941176</v>
       </c>
       <c r="I10">
-        <v>4.6252259769155903E-2</v>
+        <v>5.1080517313308198E-2</v>
       </c>
       <c r="J10">
-        <v>0.18003003003003001</v>
+        <v>0.12651651651651599</v>
       </c>
       <c r="K10">
-        <v>4.9713846153846102E-2</v>
+        <v>9.0083076923076794E-2</v>
       </c>
       <c r="L10">
-        <v>0.13999916839916801</v>
+        <v>0.13996839916839901</v>
       </c>
       <c r="M10">
-        <v>0.15797435897435799</v>
+        <v>0.14928846153846101</v>
       </c>
       <c r="N10">
-        <v>0.139348710990502</v>
+        <v>0.140257801899593</v>
       </c>
       <c r="O10">
         <v>0.247527255857109</v>
       </c>
       <c r="P10">
-        <v>7.1624999999999994E-2</v>
+        <v>7.8850000000000003E-2</v>
       </c>
       <c r="Q10">
-        <v>0.177591999999999</v>
+        <v>0.18105199999999899</v>
       </c>
       <c r="R10">
-        <v>7.0587726879861701E-2</v>
+        <v>8.4019014693171898E-2</v>
       </c>
       <c r="S10">
-        <v>4.5698529411764603E-2</v>
+        <v>4.6948529411764597E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1514,55 +1514,55 @@
         <v>3.9498412698412602E-2</v>
       </c>
       <c r="C11">
-        <v>4.5017543859649102E-2</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="D11">
-        <v>4.5246559633027497E-2</v>
+        <v>4.8537844036697197E-2</v>
       </c>
       <c r="E11">
-        <v>0.267072307692307</v>
+        <v>0.30073230769230702</v>
       </c>
       <c r="F11">
-        <v>0.26036307692307598</v>
+        <v>0.26355384615384603</v>
       </c>
       <c r="G11">
         <v>0.26358974358974302</v>
       </c>
       <c r="H11">
-        <v>0.14029411764705799</v>
+        <v>0.14117647058823499</v>
       </c>
       <c r="I11">
-        <v>4.9072104018912398E-2</v>
+        <v>5.6506396884995098E-2</v>
       </c>
       <c r="J11">
-        <v>0.127072072072072</v>
+        <v>0.14045045045044999</v>
       </c>
       <c r="K11">
-        <v>0.103943076923076</v>
+        <v>0.11065230769230699</v>
       </c>
       <c r="L11">
-        <v>0.113334719334719</v>
+        <v>0.11330395010395</v>
       </c>
       <c r="M11">
-        <v>0.17801282051282</v>
+        <v>0.188032051282051</v>
       </c>
       <c r="N11">
-        <v>0.17071913161465399</v>
+        <v>0.16333107191316101</v>
       </c>
       <c r="O11">
-        <v>0.21843655764323799</v>
+        <v>0.218747390396659</v>
       </c>
       <c r="P11">
         <v>3.0149999999999899E-2</v>
       </c>
       <c r="Q11">
-        <v>0.17125599999999999</v>
+        <v>0.17511199999999899</v>
       </c>
       <c r="R11">
         <v>0.21673292999135599</v>
       </c>
       <c r="S11">
-        <v>4.6323529411764597E-2</v>
+        <v>4.5073529411764603E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1573,55 +1573,55 @@
         <v>3.1012698412698301E-2</v>
       </c>
       <c r="C12">
-        <v>7.4140350877192895E-2</v>
+        <v>7.48070175438596E-2</v>
       </c>
       <c r="D12">
         <v>3.0372706422018201E-2</v>
       </c>
       <c r="E12">
-        <v>0.22197384615384599</v>
+        <v>0.281701538461538</v>
       </c>
       <c r="F12">
         <v>0.241887692307692</v>
       </c>
       <c r="G12">
-        <v>0.217282051282051</v>
+        <v>0.196051282051282</v>
       </c>
       <c r="H12">
-        <v>0.14147058823529399</v>
+        <v>0.14117647058823499</v>
       </c>
       <c r="I12">
-        <v>4.2129397858434101E-2</v>
+        <v>4.3646224447225698E-2</v>
       </c>
       <c r="J12">
-        <v>0.19451951951951901</v>
+        <v>0.19396396396396301</v>
       </c>
       <c r="K12">
         <v>3.3104615384615399E-2</v>
       </c>
       <c r="L12">
-        <v>0.112811642411642</v>
+        <v>0.139753014553014</v>
       </c>
       <c r="M12">
-        <v>0.176679487179487</v>
+        <v>0.17917948717948701</v>
       </c>
       <c r="N12">
-        <v>0.15276119402985</v>
+        <v>0.15321573948439601</v>
       </c>
       <c r="O12">
-        <v>0.23734864300626299</v>
+        <v>0.23290419856181799</v>
       </c>
       <c r="P12">
-        <v>2.2925000000000001E-2</v>
+        <v>2.8899999999999901E-2</v>
       </c>
       <c r="Q12">
-        <v>0.17773800000000001</v>
+        <v>0.17996799999999999</v>
       </c>
       <c r="R12">
         <v>5.8694900605012902E-2</v>
       </c>
       <c r="S12">
-        <v>6.3860294117647001E-2</v>
+        <v>8.3897058823529394E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1629,58 +1629,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.6063492063491999E-2</v>
+        <v>2.99015873015872E-2</v>
       </c>
       <c r="C13">
-        <v>5.2298245614035101E-2</v>
+        <v>5.5771929824561403E-2</v>
       </c>
       <c r="D13">
-        <v>5.8245412844036698E-2</v>
+        <v>7.0452981651376104E-2</v>
       </c>
       <c r="E13">
-        <v>0.27224307692307598</v>
+        <v>0.25915230769230702</v>
       </c>
       <c r="F13">
         <v>0.25046307692307601</v>
       </c>
       <c r="G13">
-        <v>0.23271794871794799</v>
+        <v>0.25394871794871798</v>
       </c>
       <c r="H13">
-        <v>0.11808823529411699</v>
+        <v>0.129338235294117</v>
       </c>
       <c r="I13">
-        <v>3.5656376025587501E-2</v>
+        <v>4.6466068696982298E-2</v>
       </c>
       <c r="J13">
-        <v>0.221831831831831</v>
+        <v>0.24581081081080999</v>
       </c>
       <c r="K13">
         <v>9.5253846153846106E-2</v>
       </c>
       <c r="L13">
-        <v>0.13950686070686</v>
+        <v>0.139599168399168</v>
       </c>
       <c r="M13">
-        <v>0.16832692307692301</v>
+        <v>0.159141025641025</v>
       </c>
       <c r="N13">
-        <v>0.155488466757123</v>
+        <v>0.147645861601085</v>
       </c>
       <c r="O13">
         <v>0.22494780793319399</v>
       </c>
       <c r="P13">
-        <v>8.6074999999999902E-2</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="Q13">
-        <v>0.190994</v>
+        <v>0.18457399999999999</v>
       </c>
       <c r="R13">
-        <v>7.1356957649092501E-2</v>
+        <v>6.1771823681935997E-2</v>
       </c>
       <c r="S13">
-        <v>4.4448529411764602E-2</v>
+        <v>4.5698529411764603E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1688,58 +1688,58 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.92952380952381E-2</v>
+        <v>2.69714285714285E-2</v>
       </c>
       <c r="C14">
         <v>5.54385964912281E-2</v>
       </c>
       <c r="D14">
-        <v>2.8331422018348498E-2</v>
+        <v>2.31651376146789E-2</v>
       </c>
       <c r="E14">
-        <v>0.28962153846153799</v>
+        <v>0.22274307692307599</v>
       </c>
       <c r="F14">
-        <v>0.25442307692307597</v>
+        <v>0.25277076923076902</v>
       </c>
       <c r="G14">
-        <v>0.31415384615384601</v>
+        <v>0.31338461538461498</v>
       </c>
       <c r="H14">
-        <v>0.106544117647058</v>
+        <v>0.10150735294117599</v>
       </c>
       <c r="I14">
-        <v>3.7792727019885897E-2</v>
+        <v>3.5314629397858399E-2</v>
       </c>
       <c r="J14">
-        <v>0.21960960960960901</v>
+        <v>0.192852852852852</v>
       </c>
       <c r="K14">
-        <v>0.108672307692307</v>
+        <v>0.100752307692307</v>
       </c>
       <c r="L14">
-        <v>8.5593347193347102E-2</v>
+        <v>0.112134719334719</v>
       </c>
       <c r="M14">
-        <v>0.18719871794871701</v>
+        <v>0.21608974358974301</v>
       </c>
       <c r="N14">
-        <v>0.13889416553595599</v>
+        <v>0.14719131614653999</v>
       </c>
       <c r="O14">
         <v>0.216680584551148</v>
       </c>
       <c r="P14">
-        <v>3.9874999999999897E-2</v>
+        <v>4.8349999999999997E-2</v>
       </c>
       <c r="Q14">
-        <v>0.17680000000000001</v>
+        <v>0.17738399999999999</v>
       </c>
       <c r="R14">
-        <v>4.9109766637856503E-2</v>
+        <v>4.8340535868625703E-2</v>
       </c>
       <c r="S14">
-        <v>4.6323529411764597E-2</v>
+        <v>6.4485294117647002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1750,55 +1750,55 @@
         <v>3.0406349206349201E-2</v>
       </c>
       <c r="C15">
-        <v>6.6859649122806897E-2</v>
+        <v>6.6192982456140304E-2</v>
       </c>
       <c r="D15">
-        <v>7.1077981651376104E-2</v>
+        <v>3.6788990825688102E-2</v>
       </c>
       <c r="E15">
-        <v>0.30832461538461498</v>
+        <v>0.31041846153846098</v>
       </c>
       <c r="F15">
-        <v>0.24617538461538399</v>
+        <v>0.241887692307692</v>
       </c>
       <c r="G15">
-        <v>0.30528205128205099</v>
+        <v>0.25625641025640999</v>
       </c>
       <c r="H15">
-        <v>0.13378676470588199</v>
+        <v>0.134963235294117</v>
       </c>
       <c r="I15">
-        <v>4.83246419135029E-2</v>
+        <v>4.52270198859685E-2</v>
       </c>
       <c r="J15">
-        <v>0.182252252252252</v>
+        <v>0.217387387387387</v>
       </c>
       <c r="K15">
         <v>7.8203076923076806E-2</v>
       </c>
       <c r="L15">
-        <v>0.11302702702702699</v>
+        <v>0.13978378378378301</v>
       </c>
       <c r="M15">
-        <v>0.232961538461538</v>
+        <v>0.24481410256410199</v>
       </c>
       <c r="N15">
-        <v>0.15276119402985</v>
+        <v>0.154579375848032</v>
       </c>
       <c r="O15">
         <v>0.220814196242171</v>
       </c>
       <c r="P15">
-        <v>5.7799999999999997E-2</v>
+        <v>5.9049999999999998E-2</v>
       </c>
       <c r="Q15">
-        <v>0.178176</v>
+        <v>0.16942199999999899</v>
       </c>
       <c r="R15">
-        <v>6.1002592912705197E-2</v>
+        <v>4.9109766637856503E-2</v>
       </c>
       <c r="S15">
-        <v>6.2610294117647E-2</v>
+        <v>2.50367647058823E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1809,52 +1809,52 @@
         <v>2.7577777777777701E-2</v>
       </c>
       <c r="C16">
-        <v>5.5771929824561403E-2</v>
+        <v>5.61052631578947E-2</v>
       </c>
       <c r="D16">
-        <v>5.1662844036697103E-2</v>
+        <v>4.5871559633027498E-2</v>
       </c>
       <c r="E16">
-        <v>0.30469230769230699</v>
+        <v>0.284892307692307</v>
       </c>
       <c r="F16">
         <v>0.25046307692307601</v>
       </c>
       <c r="G16">
-        <v>0.25625641025640999</v>
+        <v>0.25548717948717897</v>
       </c>
       <c r="H16">
-        <v>0.153014705882352</v>
+        <v>0.152426470588235</v>
       </c>
       <c r="I16">
-        <v>4.5910513141426801E-2</v>
+        <v>4.6188290919204497E-2</v>
       </c>
       <c r="J16">
-        <v>0.19340840840840801</v>
+        <v>0.178363363363363</v>
       </c>
       <c r="K16">
-        <v>6.6323076923076901E-2</v>
+        <v>0.131990769230769</v>
       </c>
       <c r="L16">
-        <v>0.19305114345114299</v>
+        <v>0.167094386694386</v>
       </c>
       <c r="M16">
-        <v>0.120397435897435</v>
+        <v>0.168660256410256</v>
       </c>
       <c r="N16">
-        <v>0.13150610583446401</v>
+        <v>0.162876526458616</v>
       </c>
       <c r="O16">
         <v>0.219547668754349</v>
       </c>
       <c r="P16">
-        <v>4.7100000000000003E-2</v>
+        <v>5.3699999999999901E-2</v>
       </c>
       <c r="Q16">
-        <v>0.18371999999999999</v>
+        <v>0.18878399999999901</v>
       </c>
       <c r="R16">
-        <v>4.9878997407087199E-2</v>
+        <v>5.0648228176317998E-2</v>
       </c>
       <c r="S16">
         <v>6.3860294117647001E-2</v>
@@ -1868,49 +1868,49 @@
         <v>4.06095238095237E-2</v>
       </c>
       <c r="C17">
-        <v>4.6017543859649103E-2</v>
+        <v>4.5684210526315799E-2</v>
       </c>
       <c r="D17">
-        <v>6.5911697247706402E-2</v>
+        <v>7.4994266055045902E-2</v>
       </c>
       <c r="E17">
-        <v>0.29435076923076903</v>
+        <v>0.28841076923076903</v>
       </c>
       <c r="F17">
         <v>0.24265692307692299</v>
       </c>
       <c r="G17">
-        <v>0.157846153846153</v>
+        <v>0.130051282051282</v>
       </c>
       <c r="H17">
-        <v>0.14117647058823499</v>
+        <v>0.14029411764705799</v>
       </c>
       <c r="I17">
-        <v>5.3558614935335702E-2</v>
+        <v>5.0119246280072298E-2</v>
       </c>
       <c r="J17">
-        <v>0.111471471471471</v>
+        <v>0.12651651651651599</v>
       </c>
       <c r="K17">
-        <v>0.11857230769230701</v>
+        <v>6.0824615384615401E-2</v>
       </c>
       <c r="L17">
-        <v>0.11247318087318001</v>
+        <v>0.139414553014552</v>
       </c>
       <c r="M17">
-        <v>0.20490384615384599</v>
+        <v>0.187532051282051</v>
       </c>
       <c r="N17">
-        <v>0.13150610583446401</v>
+        <v>0.117184531886024</v>
       </c>
       <c r="O17">
         <v>0.21859197401994801</v>
       </c>
       <c r="P17">
-        <v>5.7799999999999997E-2</v>
+        <v>8.41999999999999E-2</v>
       </c>
       <c r="Q17">
-        <v>0.17569599999999999</v>
+        <v>0.17777999999999999</v>
       </c>
       <c r="R17">
         <v>6.1002592912705197E-2</v>
@@ -1927,55 +1927,55 @@
         <v>2.92952380952381E-2</v>
       </c>
       <c r="C18">
-        <v>8.3228070175438595E-2</v>
+        <v>6.4385964912280602E-2</v>
       </c>
       <c r="D18">
-        <v>4.4621559633027497E-2</v>
+        <v>3.9455275229357802E-2</v>
       </c>
       <c r="E18">
-        <v>0.15663384615384601</v>
+        <v>0.275761538461538</v>
       </c>
       <c r="F18">
-        <v>0.24100461538461501</v>
+        <v>0.241887692307692</v>
       </c>
       <c r="G18">
-        <v>0.25548717948717897</v>
+        <v>0.20492307692307599</v>
       </c>
       <c r="H18">
-        <v>0.14058823529411699</v>
+        <v>0.135257352941176</v>
       </c>
       <c r="I18">
-        <v>4.9563690724516697E-2</v>
+        <v>4.90081351689612E-2</v>
       </c>
       <c r="J18">
-        <v>0.13933933933933901</v>
+        <v>0.12596096096095999</v>
       </c>
       <c r="K18">
         <v>0.11857230769230701</v>
       </c>
       <c r="L18">
-        <v>0.11290395010395</v>
+        <v>0.112842411642411</v>
       </c>
       <c r="M18">
-        <v>0.17601282051282</v>
+        <v>0.16799358974358899</v>
       </c>
       <c r="N18">
-        <v>0.154579375848032</v>
+        <v>0.15412483039348701</v>
       </c>
       <c r="O18">
         <v>0.19601252609603301</v>
       </c>
       <c r="P18">
-        <v>6.0299999999999999E-2</v>
+        <v>5.1824999999999899E-2</v>
       </c>
       <c r="Q18">
-        <v>0.178926</v>
+        <v>0.18367800000000001</v>
       </c>
       <c r="R18">
-        <v>5.0648228176317998E-2</v>
+        <v>6.2541054451166797E-2</v>
       </c>
       <c r="S18">
-        <v>4.5073529411764603E-2</v>
+        <v>4.6948529411764597E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1986,52 +1986,52 @@
         <v>3.1012698412698301E-2</v>
       </c>
       <c r="C19">
-        <v>7.3140350877192895E-2</v>
+        <v>7.3807017543859599E-2</v>
       </c>
       <c r="D19">
-        <v>4.9787844036697199E-2</v>
+        <v>5.6204128440366999E-2</v>
       </c>
       <c r="E19">
-        <v>0.21603384615384599</v>
+        <v>0.27697230769230702</v>
       </c>
       <c r="F19">
-        <v>0.24034923076923001</v>
+        <v>0.241118461538461</v>
       </c>
       <c r="G19">
         <v>0.17405128205128201</v>
       </c>
       <c r="H19">
-        <v>0.111286764705882</v>
+        <v>0.129338235294117</v>
       </c>
       <c r="I19">
-        <v>5.2255597274370701E-2</v>
+        <v>5.0183215130023502E-2</v>
       </c>
       <c r="J19">
-        <v>0.16609609609609599</v>
+        <v>0.182252252252252</v>
       </c>
       <c r="K19">
-        <v>4.3004615384615398E-2</v>
+        <v>3.78338461538461E-2</v>
       </c>
       <c r="L19">
-        <v>0.139568399168399</v>
+        <v>0.13984532224532201</v>
       </c>
       <c r="M19">
-        <v>0.21525641025641001</v>
+        <v>0.18819871794871701</v>
       </c>
       <c r="N19">
-        <v>0.18322252374491099</v>
+        <v>0.18231343283581999</v>
       </c>
       <c r="O19">
         <v>0.23290419856181799</v>
       </c>
       <c r="P19">
-        <v>4.3975E-2</v>
+        <v>4.335E-2</v>
       </c>
       <c r="Q19">
-        <v>0.16748399999999899</v>
+        <v>0.169463999999999</v>
       </c>
       <c r="R19">
-        <v>3.87554019014692E-2</v>
+        <v>3.95246326707E-2</v>
       </c>
       <c r="S19">
         <v>6.5110294117647002E-2</v>
@@ -2042,58 +2042,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.64666666666666E-2</v>
+        <v>2.92952380952381E-2</v>
       </c>
       <c r="C20">
         <v>5.7771929824561398E-2</v>
       </c>
       <c r="D20">
-        <v>6.9827981651376103E-2</v>
+        <v>6.5911697247706402E-2</v>
       </c>
       <c r="E20">
-        <v>2.0455384615384601E-2</v>
+        <v>0.24969384615384599</v>
       </c>
       <c r="F20">
-        <v>0.26828307692307601</v>
+        <v>0.25244307692307599</v>
       </c>
       <c r="G20">
         <v>0.15358974358974301</v>
       </c>
       <c r="H20">
-        <v>0.112463235294117</v>
+        <v>0.123713235294117</v>
       </c>
       <c r="I20">
-        <v>4.9285912946739001E-2</v>
+        <v>4.7427339730218197E-2</v>
       </c>
       <c r="J20">
-        <v>0.16665165165165099</v>
+        <v>0.19340840840840801</v>
       </c>
       <c r="K20">
-        <v>7.6223076923076796E-2</v>
+        <v>0.133970769230769</v>
       </c>
       <c r="L20">
-        <v>0.11256548856548799</v>
+        <v>8.5839501039500901E-2</v>
       </c>
       <c r="M20">
-        <v>0.157141025641025</v>
+        <v>0.14795512820512799</v>
       </c>
       <c r="N20">
-        <v>0.13889416553595599</v>
+        <v>0.12366350067842601</v>
       </c>
       <c r="O20">
-        <v>0.24450475527719701</v>
+        <v>0.241326838320575</v>
       </c>
       <c r="P20">
-        <v>2.8899999999999901E-2</v>
+        <v>3.6749999999999901E-2</v>
       </c>
       <c r="Q20">
-        <v>0.17680000000000001</v>
+        <v>0.18799199999999899</v>
       </c>
       <c r="R20">
-        <v>0.17377700950734601</v>
+        <v>0.238980121002592</v>
       </c>
       <c r="S20">
-        <v>4.3750000000000004E-3</v>
+        <v>2.50367647058823E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2104,55 +2104,55 @@
         <v>4.06095238095237E-2</v>
       </c>
       <c r="C21">
-        <v>3.9736842105263098E-2</v>
+        <v>4.0070175438596402E-2</v>
       </c>
       <c r="D21">
-        <v>3.7413990825688102E-2</v>
+        <v>4.5246559633027497E-2</v>
       </c>
       <c r="E21">
-        <v>0.19821384615384599</v>
+        <v>0.17247384615384601</v>
       </c>
       <c r="F21">
-        <v>0.24375384615384599</v>
+        <v>0.25882461538461499</v>
       </c>
       <c r="G21">
         <v>0.15282051282051201</v>
       </c>
       <c r="H21">
-        <v>0.129926470588235</v>
+        <v>0.135845588235294</v>
       </c>
       <c r="I21">
-        <v>3.15755805868446E-2</v>
+        <v>4.5013210958142098E-2</v>
       </c>
       <c r="J21">
-        <v>0.13933933933933901</v>
+        <v>0.221276276276276</v>
       </c>
       <c r="K21">
-        <v>9.0852307692307593E-2</v>
+        <v>0.108672307692307</v>
       </c>
       <c r="L21">
-        <v>0.13901455301455201</v>
+        <v>0.13993762993762901</v>
       </c>
       <c r="M21">
-        <v>0.14795512820512799</v>
+        <v>0.13743589743589699</v>
       </c>
       <c r="N21">
-        <v>0.124118046132971</v>
+        <v>0.131051560379918</v>
       </c>
       <c r="O21">
         <v>0.218747390396659</v>
       </c>
       <c r="P21">
-        <v>5.30749999999999E-2</v>
+        <v>6.565E-2</v>
       </c>
       <c r="Q21">
-        <v>0.16569200000000001</v>
+        <v>0.17361199999999899</v>
       </c>
       <c r="R21">
-        <v>5.0648228176317998E-2</v>
+        <v>7.21261884183233E-2</v>
       </c>
       <c r="S21">
-        <v>4.5073529411764603E-2</v>
+        <v>4.5698529411764603E-2</v>
       </c>
     </row>
   </sheetData>
